--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1440160.64939294</v>
+        <v>-1443020.481628209</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>76.84491361548362</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>88.32762356061106</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>102.0861223007257</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>90.08167292845333</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.5845421533258</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.6612299361386</v>
+        <v>382.6612299361375</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.42254329489923</v>
       </c>
       <c r="H5" t="n">
-        <v>259.2205379695012</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476423</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>36.48045741269249</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.4675038396398</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>140.6913749004398</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075473</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.33890406437032</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.47818973106277</v>
+        <v>4.478189731062898</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.25452269297829</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7405094023015</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443857</v>
+        <v>201.5013289443858</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>200.9902283232906</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>266.4255706388419</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696038</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>55.3588411569034</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>83.94550301703495</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470352</v>
@@ -1230,7 +1230,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046386</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>209.8372315195581</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>139.2595137257495</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.40992619707176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.16423677622911</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.03063761899816</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699854</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2144,10 +2144,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.49605685438627</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,13 +2378,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>160.3783204776931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.24096871741</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>136.7593194687121</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>143.1086912616885</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4183,7 +4183,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F2" t="n">
-        <v>293.6416537681855</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652801</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487953</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="V2" t="n">
-        <v>371.2627786323104</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323104</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323104</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301.4756378121077</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="C3" t="n">
-        <v>301.4756378121077</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="D3" t="n">
-        <v>152.5412281508565</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652801</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487953</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487953</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487953</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="W3" t="n">
-        <v>469.6909748321758</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="X3" t="n">
-        <v>469.6909748321758</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="Y3" t="n">
-        <v>469.6909748321758</v>
+        <v>219.9797031869071</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8118190418745</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>444.8756361139676</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>444.8756361139676</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>187.8896250884408</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692154</v>
+        <v>285.9838492295957</v>
       </c>
       <c r="N4" t="n">
-        <v>488.6815517114716</v>
+        <v>471.6341805242527</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608024</v>
+        <v>634.3723839608029</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846279</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846279</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846279</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846279</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846279</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846279</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846279</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X4" t="n">
-        <v>746.7254979846279</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>746.7254979846279</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>770.6526665984861</v>
+        <v>1107.269477978055</v>
       </c>
       <c r="C5" t="n">
-        <v>770.6526665984861</v>
+        <v>1107.269477978055</v>
       </c>
       <c r="D5" t="n">
-        <v>412.3869679917356</v>
+        <v>749.0037793713047</v>
       </c>
       <c r="E5" t="n">
-        <v>412.3869679917356</v>
+        <v>363.2155267730604</v>
       </c>
       <c r="F5" t="n">
-        <v>405.4414672425322</v>
+        <v>356.270026023857</v>
       </c>
       <c r="G5" t="n">
-        <v>392.8934437123309</v>
+        <v>343.7220024936557</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0545164704105</v>
+        <v>30.612898394891</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489109</v>
+        <v>30.612898394891</v>
       </c>
       <c r="J5" t="n">
-        <v>93.3858082712145</v>
+        <v>93.38580827121433</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235836</v>
+        <v>238.2046462235828</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190626</v>
+        <v>454.766982319061</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643066</v>
+        <v>727.4037457643043</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453888</v>
+        <v>1009.065865453885</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.69615683193</v>
+        <v>1261.696156831926</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855773</v>
+        <v>1442.809264855769</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744554</v>
+        <v>1530.64491974455</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744554</v>
+        <v>1530.64491974455</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744554</v>
+        <v>1530.64491974455</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744554</v>
+        <v>1530.64491974455</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.644919744554</v>
+        <v>1493.795972863043</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.644919744554</v>
+        <v>1493.795972863043</v>
       </c>
       <c r="W5" t="n">
-        <v>1530.644919744554</v>
+        <v>1493.795972863043</v>
       </c>
       <c r="X5" t="n">
-        <v>1157.179161483475</v>
+        <v>1493.795972863043</v>
       </c>
       <c r="Y5" t="n">
-        <v>1157.179161483475</v>
+        <v>1493.795972863043</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>794.8139144119258</v>
+        <v>468.1943659286914</v>
       </c>
       <c r="C6" t="n">
-        <v>620.3608851307988</v>
+        <v>468.1943659286914</v>
       </c>
       <c r="D6" t="n">
-        <v>471.4264754695475</v>
+        <v>319.2599562674401</v>
       </c>
       <c r="E6" t="n">
-        <v>312.189020464092</v>
+        <v>177.147456368006</v>
       </c>
       <c r="F6" t="n">
-        <v>165.654462490977</v>
+        <v>30.612898394891</v>
       </c>
       <c r="G6" t="n">
-        <v>165.654462490977</v>
+        <v>30.612898394891</v>
       </c>
       <c r="H6" t="n">
-        <v>67.31886209627525</v>
+        <v>30.612898394891</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489109</v>
+        <v>30.612898394891</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275271</v>
+        <v>49.18216652275242</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477042</v>
+        <v>387.2759822117726</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543707</v>
+        <v>581.3627685184387</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642221</v>
+        <v>827.2097618282896</v>
       </c>
       <c r="N6" t="n">
-        <v>977.8432254009994</v>
+        <v>1093.97223842624</v>
       </c>
       <c r="O6" t="n">
-        <v>1315.787993034613</v>
+        <v>1315.78799303461</v>
       </c>
       <c r="P6" t="n">
-        <v>1474.481625486917</v>
+        <v>1474.481625486913</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744554</v>
+        <v>1530.64491974455</v>
       </c>
       <c r="R6" t="n">
-        <v>1526.121495773784</v>
+        <v>1526.12149577378</v>
       </c>
       <c r="S6" t="n">
-        <v>1381.617421688731</v>
+        <v>1381.617421688726</v>
       </c>
       <c r="T6" t="n">
-        <v>1381.617421688731</v>
+        <v>1185.705040874333</v>
       </c>
       <c r="U6" t="n">
-        <v>1381.617421688731</v>
+        <v>957.5838308886357</v>
       </c>
       <c r="V6" t="n">
-        <v>1381.617421688731</v>
+        <v>722.431722656893</v>
       </c>
       <c r="W6" t="n">
-        <v>1127.380064960529</v>
+        <v>468.1943659286914</v>
       </c>
       <c r="X6" t="n">
-        <v>919.5285647549963</v>
+        <v>468.1943659286914</v>
       </c>
       <c r="Y6" t="n">
-        <v>919.5285647549963</v>
+        <v>468.1943659286914</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.3172683061234</v>
+        <v>198.9957502994246</v>
       </c>
       <c r="C7" t="n">
-        <v>346.3810853782165</v>
+        <v>198.9957502994246</v>
       </c>
       <c r="D7" t="n">
-        <v>196.2644459658808</v>
+        <v>198.9957502994246</v>
       </c>
       <c r="E7" t="n">
-        <v>196.2644459658808</v>
+        <v>198.9957502994246</v>
       </c>
       <c r="F7" t="n">
-        <v>182.8760392052967</v>
+        <v>198.9957502994246</v>
       </c>
       <c r="G7" t="n">
-        <v>182.8760392052967</v>
+        <v>30.612898394891</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489109</v>
+        <v>30.612898394891</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489109</v>
+        <v>30.612898394891</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489109</v>
+        <v>30.612898394891</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1668774983382</v>
+        <v>157.166877498338</v>
       </c>
       <c r="L7" t="n">
-        <v>374.6388343436927</v>
+        <v>374.6388343436922</v>
       </c>
       <c r="M7" t="n">
-        <v>614.3216441132936</v>
+        <v>614.3216441132929</v>
       </c>
       <c r="N7" t="n">
-        <v>853.7399488058475</v>
+        <v>853.7399488058466</v>
       </c>
       <c r="O7" t="n">
-        <v>1058.86520865046</v>
+        <v>1058.865208650459</v>
       </c>
       <c r="P7" t="n">
-        <v>1210.864622702305</v>
+        <v>1210.864622702303</v>
       </c>
       <c r="Q7" t="n">
-        <v>1232.666058086412</v>
+        <v>1232.66605808641</v>
       </c>
       <c r="R7" t="n">
-        <v>1232.666058086412</v>
+        <v>1232.66605808641</v>
       </c>
       <c r="S7" t="n">
-        <v>1029.129362182992</v>
+        <v>1029.12936218299</v>
       </c>
       <c r="T7" t="n">
-        <v>804.4572269229845</v>
+        <v>804.457226922983</v>
       </c>
       <c r="U7" t="n">
-        <v>515.3172683061234</v>
+        <v>804.457226922983</v>
       </c>
       <c r="V7" t="n">
-        <v>515.3172683061234</v>
+        <v>601.4367942731944</v>
       </c>
       <c r="W7" t="n">
-        <v>515.3172683061234</v>
+        <v>601.4367942731944</v>
       </c>
       <c r="X7" t="n">
-        <v>515.3172683061234</v>
+        <v>601.4367942731944</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.3172683061234</v>
+        <v>380.6442151296643</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1086.782678460469</v>
+        <v>789.5335540906475</v>
       </c>
       <c r="C8" t="n">
-        <v>1086.782678460469</v>
+        <v>420.5710371502358</v>
       </c>
       <c r="D8" t="n">
-        <v>728.5169798537181</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="E8" t="n">
-        <v>728.5169798537181</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346859</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301913</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771189</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642789</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794704</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U8" t="n">
-        <v>1826.151173794704</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="V8" t="n">
-        <v>1826.151173794704</v>
+        <v>1902.367807685963</v>
       </c>
       <c r="W8" t="n">
-        <v>1473.38251852459</v>
+        <v>1549.599152415849</v>
       </c>
       <c r="X8" t="n">
-        <v>1473.38251852459</v>
+        <v>1176.133394154769</v>
       </c>
       <c r="Y8" t="n">
-        <v>1473.38251852459</v>
+        <v>1176.133394154769</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7635526468908</v>
+        <v>533.4666540631165</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3105233657639</v>
+        <v>533.4666540631165</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3761137045125</v>
+        <v>533.4666540631165</v>
       </c>
       <c r="E9" t="n">
-        <v>302.138658699057</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
         <v>302.138658699057</v>
@@ -4878,55 +4878,55 @@
         <v>69.80729798300615</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562348</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104406</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>1018.359127591628</v>
+        <v>1040.889774569343</v>
       </c>
       <c r="N9" t="n">
-        <v>1361.14165158626</v>
+        <v>1383.672298563975</v>
       </c>
       <c r="O9" t="n">
-        <v>1652.500897840826</v>
+        <v>1675.031544818542</v>
       </c>
       <c r="P9" t="n">
-        <v>1867.009313401727</v>
+        <v>1889.539960379443</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406376</v>
+        <v>2029.495166406375</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880352</v>
+        <v>1834.784844880351</v>
       </c>
       <c r="U9" t="n">
-        <v>1622.828045365647</v>
+        <v>1606.683255013616</v>
       </c>
       <c r="V9" t="n">
-        <v>1622.828045365647</v>
+        <v>1371.531146781873</v>
       </c>
       <c r="W9" t="n">
-        <v>1368.590688637446</v>
+        <v>1117.293790053671</v>
       </c>
       <c r="X9" t="n">
-        <v>1160.739188431913</v>
+        <v>909.4422898481384</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.9788896669588</v>
+        <v>701.6819910831846</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4382088709817</v>
+        <v>153.625929312925</v>
       </c>
       <c r="C10" t="n">
-        <v>211.5020259430748</v>
+        <v>153.625929312925</v>
       </c>
       <c r="D10" t="n">
-        <v>211.5020259430748</v>
+        <v>153.625929312925</v>
       </c>
       <c r="E10" t="n">
-        <v>211.5020259430748</v>
+        <v>153.625929312925</v>
       </c>
       <c r="F10" t="n">
-        <v>211.5020259430748</v>
+        <v>153.625929312925</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809316</v>
+        <v>153.625929312925</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809316</v>
+        <v>153.625929312925</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174254</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
         <v>213.7203003246709</v>
@@ -4984,28 +4984,28 @@
         <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465731</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1178.011396849957</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="T10" t="n">
-        <v>954.407539542581</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="U10" t="n">
-        <v>665.2812185166046</v>
+        <v>1146.50971759732</v>
       </c>
       <c r="V10" t="n">
-        <v>665.2812185166046</v>
+        <v>891.8252293914331</v>
       </c>
       <c r="W10" t="n">
-        <v>601.2307880145119</v>
+        <v>602.4080593544725</v>
       </c>
       <c r="X10" t="n">
-        <v>601.2307880145119</v>
+        <v>374.4185084564551</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4382088709817</v>
+        <v>153.625929312925</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958789</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467972</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556363</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732431</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>335.9629114732431</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797797</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510514</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304627</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267666</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369649</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261186</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5516,19 +5516,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297753</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279806</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258109</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602307</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.74706939642</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498403</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354873</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>650.3841300523919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,52 +6215,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6291,40 +6291,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>577.388077746847</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280593</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.363146234998</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.761681257939</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.686454602137</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6704,19 +6704,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>417.9651836029414</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>691.1951506745235</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7020,16 +7020,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.154262550759</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,13 +7403,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
@@ -7436,22 +7436,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7789,10 +7789,10 @@
         <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345479</v>
@@ -7801,37 +7801,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>82.97369176944386</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
-        <v>145.8220995101052</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724341</v>
+        <v>34.66253762724367</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>230.5062162263323</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>113.2041828675016</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>117.3020333588319</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>196.2184492047245</v>
+        <v>218.9766784751444</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>187.319058465429</v>
       </c>
       <c r="R9" t="n">
         <v>31.66886087721419</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>330.0311321262278</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>25.91829388988656</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871029</v>
+        <v>63.64367339871013</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>175.4449896195005</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.2474380286115</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>98.73949432713007</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>38.18406822271695</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3599015160397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.8013425629391</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294585</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>127.9379057921829</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.20633287440174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>80.64613085857621</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>37.91759473995606</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154572</v>
+        <v>135401.7127154573</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
@@ -26320,13 +26320,13 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
@@ -26335,25 +26335,25 @@
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
+        <v>161429.3199380013</v>
+      </c>
+      <c r="K2" t="n">
         <v>161429.3199380011</v>
       </c>
-      <c r="K2" t="n">
-        <v>161429.3199380012</v>
-      </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996501</v>
+        <v>216004.0468996488</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960631</v>
+        <v>167084.511296064</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742639</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854464</v>
+        <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838268</v>
+        <v>50221.67010838241</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064624</v>
+        <v>59784.02116064646</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515977</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195959.7647260687</v>
+        <v>195959.7647260688</v>
       </c>
       <c r="C4" t="n">
-        <v>220711.7529307695</v>
+        <v>220711.7529307698</v>
       </c>
       <c r="D4" t="n">
-        <v>173824.4120003224</v>
+        <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685511</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685511</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685519</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994857</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994858</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994858</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994858</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994859</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790105</v>
+        <v>72511.97598790097</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708900.7549430707</v>
+        <v>-709260.8379587883</v>
       </c>
       <c r="C6" t="n">
-        <v>-345019.421845464</v>
+        <v>-345019.4218454629</v>
       </c>
       <c r="D6" t="n">
-        <v>-261899.6511794011</v>
+        <v>-261899.6511794022</v>
       </c>
       <c r="E6" t="n">
-        <v>-555353.1695370249</v>
+        <v>-555387.9074624607</v>
       </c>
       <c r="F6" t="n">
-        <v>46090.03803723896</v>
+        <v>46055.30011180337</v>
       </c>
       <c r="G6" t="n">
-        <v>46090.03803723895</v>
+        <v>46055.30011180334</v>
       </c>
       <c r="H6" t="n">
-        <v>46090.03803723901</v>
+        <v>46055.3001118033</v>
       </c>
       <c r="I6" t="n">
-        <v>46090.03803723902</v>
+        <v>46055.3001118033</v>
       </c>
       <c r="J6" t="n">
-        <v>-2974.906691305703</v>
+        <v>-3009.644616741324</v>
       </c>
       <c r="K6" t="n">
-        <v>-4131.6320711437</v>
+        <v>-4166.369996579175</v>
       </c>
       <c r="L6" t="n">
-        <v>-20947.39438165347</v>
+        <v>-20947.3943816536</v>
       </c>
       <c r="M6" t="n">
-        <v>-118309.7537726049</v>
+        <v>-118309.753772605</v>
       </c>
       <c r="N6" t="n">
-        <v>38836.62677899285</v>
+        <v>38836.6267789928</v>
       </c>
       <c r="O6" t="n">
-        <v>38836.62677899274</v>
+        <v>38836.62677899278</v>
       </c>
       <c r="P6" t="n">
-        <v>38836.62677899282</v>
+        <v>38836.62677899281</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>3.519713256482333e-14</v>
@@ -26707,25 +26707,25 @@
         <v>3.519713256482333e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836616</v>
+        <v>716.4483122836607</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361386</v>
+        <v>382.6612299361375</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,14 +26914,14 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.519713256482333e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707568</v>
+        <v>167.9783713707558</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540235</v>
+        <v>137.2623522540243</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698186</v>
+        <v>195.1356427698173</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900259</v>
+        <v>159.4537267900268</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698186</v>
+        <v>195.1356427698176</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900259</v>
+        <v>159.4537267900268</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.519713256482333e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698186</v>
+        <v>195.1356427698173</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900259</v>
+        <v>159.4537267900268</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>324.770209669447</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>8.623441921817744</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>34.07766706504958</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550655</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681185</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377071</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>161.6133102324663</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>41.60771861940145</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027079</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07261172734195043</v>
+        <v>0.07261172734303045</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.75747508827584</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476437</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926214</v>
+        <v>143.3876437926215</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1152373702176</v>
+        <v>214.6347799575252</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.06567981022755</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>16.95370555496118</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075475</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.33890406437038</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>132.1665253299529</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6990233854882</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
         <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>2.0178928276558</v>
+        <v>2.017892827655913</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>51.14741500053739</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>140.4504751028696</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>272.3934173132315</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,16 +27932,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>73.69957743836599</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>15.98334244851046</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>146.9755440899672</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1130721395192</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>5.242209118901445e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.111025083571365e-12</v>
       </c>
       <c r="O19" t="n">
-        <v>3.168371720796298e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28864,10 +28864,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29098,13 +29098,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
         <v>280.472093452864</v>
@@ -31057,28 +31057,28 @@
         <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,7 +31215,7 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235823</v>
+        <v>2.88019422023582</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799014</v>
+        <v>29.4967890579901</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756417</v>
+        <v>111.0386876756415</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997404</v>
+        <v>244.4528841997401</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423229</v>
+        <v>366.3715055423224</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098651</v>
+        <v>454.5162494098645</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739839</v>
+        <v>505.7369033739832</v>
       </c>
       <c r="N5" t="n">
-        <v>513.920255202229</v>
+        <v>513.9202552022283</v>
       </c>
       <c r="O5" t="n">
-        <v>485.280323924759</v>
+        <v>485.2803239247584</v>
       </c>
       <c r="P5" t="n">
-        <v>414.175529112687</v>
+        <v>414.1755291126865</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004915</v>
+        <v>311.0285736004911</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868887</v>
+        <v>180.9230001868885</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6324257936239</v>
+        <v>65.63242579362381</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908232</v>
+        <v>12.60805019908231</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188658</v>
+        <v>0.2304155376188655</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044102</v>
+        <v>1.5410397660441</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574173</v>
+        <v>14.88319984574171</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704476</v>
+        <v>53.0577287870447</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594562</v>
+        <v>145.594463159456</v>
       </c>
       <c r="K6" t="n">
-        <v>248.844127484411</v>
+        <v>248.8441274844107</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754969</v>
+        <v>334.6016386754965</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945955</v>
+        <v>390.464330194595</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519703</v>
+        <v>400.7987591519698</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306773</v>
+        <v>366.6525622306768</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510006</v>
+        <v>294.2710058510002</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462612</v>
+        <v>196.712374346261</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158036</v>
+        <v>95.67964442158024</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963495</v>
+        <v>28.62413775963492</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572498</v>
+        <v>6.21147168857249</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344805</v>
+        <v>0.1013841951344803</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970537</v>
+        <v>1.291955972970535</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513806</v>
+        <v>11.48666310513804</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351399</v>
+        <v>38.85263962351394</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901698</v>
+        <v>91.34128728901686</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505769</v>
+        <v>150.1017939505767</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178197</v>
+        <v>192.0786180178195</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902815</v>
+        <v>202.5199712902813</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273915</v>
+        <v>197.7044990273913</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522356</v>
+        <v>182.6121042522354</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036365</v>
+        <v>156.2562024036363</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548329</v>
+        <v>108.1836951548328</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647523</v>
+        <v>58.09103856647516</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258654</v>
+        <v>22.51526909258651</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874112</v>
+        <v>5.520175520874105</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839302</v>
+        <v>0.07047032579839294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31525,16 +31525,16 @@
         <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
         <v>578.253840119091</v>
@@ -31543,10 +31543,10 @@
         <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>78.20676087699499</v>
@@ -31555,7 +31555,7 @@
         <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076064</v>
@@ -31607,13 +31607,13 @@
         <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
         <v>436.898513388451</v>
@@ -31622,19 +31622,19 @@
         <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
         <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
         <v>108.841112100157</v>
@@ -31692,7 +31692,7 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595399</v>
@@ -31701,7 +31701,7 @@
         <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
         <v>69.22054011153097</v>
@@ -31710,10 +31710,10 @@
         <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,10 +31850,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,22 +32075,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>489.3502824033309</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K18" t="n">
-        <v>454.5606621218849</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,19 +32549,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471805</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399249</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.8572963387074</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>463.4789474089069</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197792</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467559</v>
       </c>
       <c r="O36" t="n">
-        <v>638.9422653403558</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745686</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>531.8166820790253</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
         <v>117.5966053606292</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>99.08507489005549</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O4" t="n">
-        <v>147.1624568175058</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305414</v>
+        <v>63.40697967305385</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973423</v>
+        <v>146.2816544973419</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398779</v>
+        <v>218.7498344398772</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467112</v>
+        <v>275.3906701467105</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056381</v>
+        <v>284.5071916056374</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030723</v>
+        <v>255.1821125030716</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574175</v>
+        <v>182.9425333574169</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.722883726042</v>
+        <v>88.7228837260416</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278952</v>
+        <v>18.75683649278932</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100521</v>
+        <v>341.508904736384</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956227</v>
+        <v>196.0472588956223</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725772</v>
+        <v>248.3302962725767</v>
       </c>
       <c r="N6" t="n">
-        <v>382.6612299361386</v>
+        <v>269.4570470686365</v>
       </c>
       <c r="O6" t="n">
-        <v>341.3583511450648</v>
+        <v>224.0563177862324</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366704</v>
+        <v>160.29659843667</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.7306002602397</v>
+        <v>56.73060026023947</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8323021246941</v>
+        <v>127.8323021246939</v>
       </c>
       <c r="L7" t="n">
-        <v>219.6686432781358</v>
+        <v>219.6686432781356</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1038482521221</v>
+        <v>242.1038482521219</v>
       </c>
       <c r="N7" t="n">
-        <v>241.8366714066201</v>
+        <v>241.8366714066199</v>
       </c>
       <c r="O7" t="n">
-        <v>207.1972321662753</v>
+        <v>207.1972321662751</v>
       </c>
       <c r="P7" t="n">
-        <v>153.53476166853</v>
+        <v>153.5347616685298</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.02165190313852</v>
+        <v>22.02165190313838</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
         <v>348.1556286974043</v>
@@ -35191,7 +35191,7 @@
         <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>519.3567274557446</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847785</v>
+        <v>281.7372389143583</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35349,7 +35349,7 @@
         <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349607</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,10 +35498,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191367</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35723,22 +35723,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>347.2162484813126</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>55.8742344041918</v>
       </c>
       <c r="K18" t="n">
-        <v>316.7192231475259</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36051,10 +36051,10 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899115</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060486</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,19 +36197,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>342.5164587638472</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565916</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204069</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>325.6375084345479</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753348</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634226</v>
       </c>
       <c r="O36" t="n">
-        <v>496.3460208959114</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790191</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7666531334392</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462695</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>393.2623022991511</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
